--- a/3_test-case_Canban.ru.xlsx
+++ b/3_test-case_Canban.ru.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="157">
   <si>
     <t>Test Case Results</t>
   </si>
@@ -577,6 +577,21 @@
   </si>
   <si>
     <t>https://jira.atlassian.com/browse/DEMO-13560</t>
+  </si>
+  <si>
+    <t>TC-P-1</t>
+  </si>
+  <si>
+    <t>Load Testing</t>
+  </si>
+  <si>
+    <t>Used Jmeter tool</t>
+  </si>
+  <si>
+    <t>Tha application should pass load testing</t>
+  </si>
+  <si>
+    <t>Tha application passed load testing</t>
   </si>
 </sst>
 </file>
@@ -872,6 +887,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -904,12 +925,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="3" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1024,7 +1039,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1248,25 +1263,25 @@
         </c:ser>
         <c:gapWidth val="30"/>
         <c:overlap val="100"/>
-        <c:axId val="128137472"/>
-        <c:axId val="128159744"/>
+        <c:axId val="160454912"/>
+        <c:axId val="160477184"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="128137472"/>
+        <c:axId val="160454912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="l"/>
         <c:tickLblPos val="none"/>
-        <c:crossAx val="128159744"/>
+        <c:crossAx val="160477184"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128159744"/>
+        <c:axId val="160477184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0"/>
@@ -1309,10 +1324,10 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128137472"/>
+        <c:crossAx val="160454912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
-        <c:minorUnit val="0.31290000000000073"/>
+        <c:minorUnit val="0.31290000000000084"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1396,7 +1411,7 @@
   </c:txPr>
   <c:printSettings>
     <c:headerFooter alignWithMargins="0"/>
-    <c:pageMargins b="1" l="0.75000000000000144" r="0.75000000000000144" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75000000000000155" r="0.75000000000000155" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
@@ -1408,13 +1423,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>35</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1770,13 +1785,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="1">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1795,29 +1810,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" ht="20.25">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
       <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:10" s="23" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="45" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
       <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" s="11" customFormat="1" ht="49.5" customHeight="1">
@@ -1851,7 +1866,7 @@
       <c r="A4" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="35" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -1869,7 +1884,7 @@
       <c r="G4" s="2">
         <v>42410</v>
       </c>
-      <c r="H4" s="44" t="s">
+      <c r="H4" s="33" t="s">
         <v>135</v>
       </c>
       <c r="J4" s="1"/>
@@ -1878,7 +1893,7 @@
       <c r="A5" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="34"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="6" t="s">
         <v>23</v>
       </c>
@@ -1901,7 +1916,7 @@
       <c r="A6" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="34"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="6" t="s">
         <v>131</v>
       </c>
@@ -1917,7 +1932,7 @@
       <c r="G6" s="2">
         <v>42410</v>
       </c>
-      <c r="H6" s="44" t="s">
+      <c r="H6" s="33" t="s">
         <v>136</v>
       </c>
       <c r="J6" s="1"/>
@@ -1926,7 +1941,7 @@
       <c r="A7" s="21" t="s">
         <v>101</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1949,7 +1964,7 @@
       <c r="A8" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B8" s="34"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="6" t="s">
         <v>29</v>
       </c>
@@ -1972,7 +1987,7 @@
       <c r="A9" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="37"/>
       <c r="C9" s="6" t="s">
         <v>87</v>
       </c>
@@ -1988,7 +2003,7 @@
       <c r="G9" s="2">
         <v>42410</v>
       </c>
-      <c r="H9" s="45" t="s">
+      <c r="H9" s="34" t="s">
         <v>137</v>
       </c>
       <c r="J9" s="1"/>
@@ -2015,7 +2030,7 @@
       <c r="G10" s="2">
         <v>42410</v>
       </c>
-      <c r="H10" s="45" t="s">
+      <c r="H10" s="34" t="s">
         <v>138</v>
       </c>
       <c r="J10" s="1"/>
@@ -2067,7 +2082,7 @@
       <c r="G12" s="2">
         <v>42410</v>
       </c>
-      <c r="H12" s="44" t="s">
+      <c r="H12" s="33" t="s">
         <v>140</v>
       </c>
       <c r="J12" s="1"/>
@@ -2095,7 +2110,7 @@
       <c r="A14" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="38" t="s">
         <v>34</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -2120,7 +2135,7 @@
       <c r="A15" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="6" t="s">
         <v>52</v>
       </c>
@@ -2143,7 +2158,7 @@
       <c r="A16" s="21" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
         <v>142</v>
       </c>
@@ -2159,7 +2174,7 @@
       <c r="G16" s="2">
         <v>42410</v>
       </c>
-      <c r="H16" s="44" t="s">
+      <c r="H16" s="33" t="s">
         <v>141</v>
       </c>
       <c r="J16" s="1"/>
@@ -2168,7 +2183,7 @@
       <c r="A17" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
         <v>143</v>
       </c>
@@ -2184,7 +2199,7 @@
       <c r="G17" s="2">
         <v>42410</v>
       </c>
-      <c r="H17" s="44" t="s">
+      <c r="H17" s="33" t="s">
         <v>144</v>
       </c>
       <c r="J17" s="1"/>
@@ -2193,7 +2208,7 @@
       <c r="A18" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
         <v>67</v>
       </c>
@@ -2209,7 +2224,7 @@
       <c r="G18" s="2">
         <v>42410</v>
       </c>
-      <c r="H18" s="44" t="s">
+      <c r="H18" s="33" t="s">
         <v>145</v>
       </c>
       <c r="J18" s="1"/>
@@ -2218,7 +2233,7 @@
       <c r="A19" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6" t="s">
         <v>54</v>
       </c>
@@ -2241,7 +2256,7 @@
       <c r="A20" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B20" s="39" t="s">
+      <c r="B20" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -2266,7 +2281,7 @@
       <c r="A21" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="6" t="s">
         <v>36</v>
       </c>
@@ -2282,7 +2297,7 @@
       <c r="G21" s="2">
         <v>42410</v>
       </c>
-      <c r="H21" s="45" t="s">
+      <c r="H21" s="34" t="s">
         <v>146</v>
       </c>
       <c r="J21" s="1"/>
@@ -2291,7 +2306,7 @@
       <c r="A22" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="6" t="s">
         <v>147</v>
       </c>
@@ -2307,7 +2322,7 @@
       <c r="G22" s="2">
         <v>42410</v>
       </c>
-      <c r="H22" s="45" t="s">
+      <c r="H22" s="34" t="s">
         <v>148</v>
       </c>
       <c r="J22" s="1"/>
@@ -2334,7 +2349,7 @@
       <c r="G23" s="2">
         <v>42410</v>
       </c>
-      <c r="H23" s="45" t="s">
+      <c r="H23" s="34" t="s">
         <v>149</v>
       </c>
       <c r="J23" s="1"/>
@@ -2536,46 +2551,58 @@
       <c r="G31" s="2">
         <v>42410</v>
       </c>
-      <c r="H31" s="45" t="s">
+      <c r="H31" s="34" t="s">
         <v>151</v>
       </c>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="1:10" ht="89.25">
+    <row r="32" spans="1:10" ht="25.5">
       <c r="A32" s="14" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>128</v>
+        <v>154</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>130</v>
+        <v>155</v>
       </c>
       <c r="E32" s="6" t="s">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>19</v>
       </c>
       <c r="G32" s="2">
+        <v>42417</v>
+      </c>
+      <c r="H32" s="34"/>
+      <c r="J32" s="1"/>
+    </row>
+    <row r="33" spans="1:10" ht="89.25">
+      <c r="A33" s="14" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="2">
         <v>42410</v>
       </c>
-      <c r="H32" s="27"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="14"/>
-      <c r="B33" s="14"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G33" s="5"/>
       <c r="H33" s="27"/>
       <c r="J33" s="1"/>
     </row>
@@ -2590,52 +2617,59 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="27"/>
-      <c r="I34" s="12"/>
       <c r="J34" s="1"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="12"/>
-      <c r="D35" s="12"/>
-      <c r="E35" s="12"/>
-      <c r="F35" s="12"/>
-      <c r="G35" s="12"/>
-      <c r="H35" s="12"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="12"/>
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="1"/>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="13"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="13"/>
-      <c r="H36" s="13"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
-    </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="9"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="8"/>
-      <c r="J38" s="8"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="13"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A39" s="7"/>
@@ -2644,8 +2678,8 @@
       <c r="J39" s="8"/>
     </row>
     <row r="40" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="8"/>
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" s="8"/>
       <c r="J40" s="8"/>
     </row>
@@ -2677,20 +2711,26 @@
       <c r="A45" s="8"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
-      <c r="I45" s="10"/>
       <c r="J45" s="8"/>
     </row>
-    <row r="46" spans="1:10" s="9" customFormat="1">
+    <row r="46" spans="1:10" s="9" customFormat="1" ht="18" customHeight="1">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="1"/>
+      <c r="I46" s="10"/>
       <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10" s="9" customFormat="1">
+      <c r="A47" s="8"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -2700,7 +2740,7 @@
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A2:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="F4:F34">
+  <conditionalFormatting sqref="F4:F35">
     <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
       <formula>"F"</formula>
     </cfRule>
@@ -2712,10 +2752,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations xWindow="673" yWindow="311" count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Valid values include:" prompt="U - Untested&#10;P - Pass&#10;F - Fail&#10;B - Blocked&#10;S - Skipped&#10;n/a - Not applicable&#10;" sqref="F33:F34">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Valid values include:" prompt="U - Untested&#10;P - Pass&#10;F - Fail&#10;B - Blocked&#10;S - Skipped&#10;n/a - Not applicable&#10;" sqref="F34:F35">
       <formula1>"U,P,F,B,S,n/a"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Enter correct value!" promptTitle="Valid values include:" prompt="P    - Pass &#10;F    - Fail&#10;S    - Skipped&#10;B    - Blocked&#10;n/r - Not run&#10;" sqref="F4:F32">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Error!" error="Enter correct value!" promptTitle="Valid values include:" prompt="P    - Pass &#10;F    - Fail&#10;S    - Skipped&#10;B    - Blocked&#10;n/r - Not run&#10;" sqref="F4:F33">
       <formula1>"P,F,S,B,n/r"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="A3:C3"/>
@@ -2770,8 +2810,8 @@
         <v>1</v>
       </c>
       <c r="C12" s="19">
-        <f>COUNTIF(TC!$F$3:$F$36,"P")</f>
-        <v>16</v>
+        <f>COUNTIF(TC!$F$3:$F$37,"P")</f>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="2:3">
@@ -2779,7 +2819,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="19">
-        <f>COUNTIF(TC!$F$3:$F$36,"F")</f>
+        <f>COUNTIF(TC!$F$3:$F$37,"F")</f>
         <v>12</v>
       </c>
     </row>
@@ -2788,7 +2828,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="19">
-        <f>COUNTIF(TC!$F$3:$F$36,"S")</f>
+        <f>COUNTIF(TC!$F$3:$F$37,"S")</f>
         <v>0</v>
       </c>
     </row>
@@ -2797,7 +2837,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="19">
-        <f>COUNTIF(TC!$F$3:$F$36,"B")</f>
+        <f>COUNTIF(TC!$F$3:$F$37,"B")</f>
         <v>0</v>
       </c>
     </row>
@@ -2806,7 +2846,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="19">
-        <f>COUNTIF(TC!$F$3:$F$36,"n/r")</f>
+        <f>COUNTIF(TC!$F$3:$F$37,"n/r")</f>
         <v>1</v>
       </c>
     </row>
